--- a/monday 2014_08_03/Tabor_step_function_plates.xlsx
+++ b/monday 2014_08_03/Tabor_step_function_plates.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="4480" yWindow="0" windowWidth="21760" windowHeight="14260" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="plate4" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,12 @@
     <sheet name="plate1" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -414,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="171">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -918,13 +923,22 @@
   </si>
   <si>
     <t>chsl4, step down #1 green preconditioned</t>
+  </si>
+  <si>
+    <t>coordiante</t>
+  </si>
+  <si>
+    <t>OD.600</t>
+  </si>
+  <si>
+    <t>GFP.flu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,8 +967,24 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1005,60 +1035,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFD4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6495ED"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ACD32"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8FBC8B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEB887"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4A460"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD2691E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1073,7 +1049,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0"/>
@@ -1082,15 +1058,27 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="14">
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
     <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
@@ -1399,13 +1387,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147:B242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1404,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1427,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1435,7 +1423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1443,7 +1431,7 @@
         <v>41855</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1451,7 +1439,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1459,7 +1447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1467,7 +1455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1475,12 +1463,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1500,7 +1488,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1520,12 +1508,12 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1533,7 +1521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1544,7 +1532,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1555,7 +1543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1563,7 +1551,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1574,7 +1562,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1582,20 +1570,18 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>33</v>
-      </c>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -1603,7 +1589,7 @@
         <v>7.1999996900558472E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -1611,7 +1597,7 @@
         <v>7.1599997580051422E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -1619,7 +1605,7 @@
         <v>7.2200000286102295E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -1627,7 +1613,7 @@
         <v>7.2700001299381256E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -1635,7 +1621,7 @@
         <v>7.2200000286102295E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
@@ -1643,7 +1629,7 @@
         <v>7.1599997580051422E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
@@ -1651,7 +1637,7 @@
         <v>7.2700001299381256E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -1659,7 +1645,7 @@
         <v>7.2200000286102295E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
@@ -1667,7 +1653,7 @@
         <v>7.3399998247623444E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
@@ -1675,7 +1661,7 @@
         <v>7.4100002646446228E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -1683,7 +1669,7 @@
         <v>7.4199996888637543E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
@@ -1691,7 +1677,7 @@
         <v>7.5599998235702515E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
@@ -1699,7 +1685,7 @@
         <v>7.3700003325939178E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -1707,7 +1693,7 @@
         <v>7.3100000619888306E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -1715,7 +1701,7 @@
         <v>6.8999998271465302E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -1723,7 +1709,7 @@
         <v>7.2400003671646118E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -1731,7 +1717,7 @@
         <v>7.1999996900558472E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
@@ -1739,7 +1725,7 @@
         <v>7.1400001645088196E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
@@ -1747,7 +1733,7 @@
         <v>7.1800000965595245E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
@@ -1755,7 +1741,7 @@
         <v>7.1699999272823334E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
@@ -1763,7 +1749,7 @@
         <v>7.2899997234344482E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
@@ -1771,7 +1757,7 @@
         <v>7.0699997246265411E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
@@ -1779,7 +1765,7 @@
         <v>7.3499999940395355E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
@@ -1787,7 +1773,7 @@
         <v>7.3399998247623444E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
@@ -1795,7 +1781,7 @@
         <v>7.3499999940395355E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
@@ -1803,7 +1789,7 @@
         <v>7.1299999952316284E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
@@ -1811,7 +1797,7 @@
         <v>7.1400001645088196E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
@@ -1819,7 +1805,7 @@
         <v>7.0000000298023224E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
@@ -1827,7 +1813,7 @@
         <v>7.2400003671646118E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
@@ -1835,7 +1821,7 @@
         <v>6.8300001323223114E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>64</v>
       </c>
@@ -1843,7 +1829,7 @@
         <v>6.889999657869339E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
@@ -1851,7 +1837,7 @@
         <v>7.3100000619888306E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
@@ -1859,7 +1845,7 @@
         <v>7.1699999272823334E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
@@ -1867,7 +1853,7 @@
         <v>7.3799997568130493E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>68</v>
       </c>
@@ -1875,7 +1861,7 @@
         <v>7.4400000274181366E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
@@ -1883,7 +1869,7 @@
         <v>7.4100002646446228E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
@@ -1891,7 +1877,7 @@
         <v>7.1000002324581146E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
@@ -1899,7 +1885,7 @@
         <v>7.2099998593330383E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
@@ -1907,7 +1893,7 @@
         <v>7.2700001299381256E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
@@ -1915,7 +1901,7 @@
         <v>7.0100001990795135E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
         <v>74</v>
       </c>
@@ -1923,7 +1909,7 @@
         <v>7.0900000631809235E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
@@ -1931,7 +1917,7 @@
         <v>7.2800002992153168E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
         <v>76</v>
       </c>
@@ -1939,7 +1925,7 @@
         <v>7.4199996888637543E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>77</v>
       </c>
@@ -1947,7 +1933,7 @@
         <v>7.2999998927116394E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
@@ -1955,7 +1941,7 @@
         <v>7.4199996888637543E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
@@ -1963,7 +1949,7 @@
         <v>7.4500001966953278E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>80</v>
       </c>
@@ -1971,7 +1957,7 @@
         <v>7.4699997901916504E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>81</v>
       </c>
@@ -1979,7 +1965,7 @@
         <v>7.4799999594688416E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
@@ -1987,7 +1973,7 @@
         <v>7.2999998927116394E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
@@ -1995,7 +1981,7 @@
         <v>7.3100000619888306E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>84</v>
       </c>
@@ -2003,7 +1989,7 @@
         <v>7.0799998939037323E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>85</v>
       </c>
@@ -2011,7 +1997,7 @@
         <v>7.3899999260902405E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>86</v>
       </c>
@@ -2019,7 +2005,7 @@
         <v>7.4500001966953278E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
@@ -2027,7 +2013,7 @@
         <v>7.3600001633167267E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>88</v>
       </c>
@@ -2035,7 +2021,7 @@
         <v>7.4799999594688416E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>89</v>
       </c>
@@ -2043,7 +2029,7 @@
         <v>7.4799999594688416E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>90</v>
       </c>
@@ -2051,7 +2037,7 @@
         <v>7.4900001287460327E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>91</v>
       </c>
@@ -2059,7 +2045,7 @@
         <v>7.4799999594688416E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>92</v>
       </c>
@@ -2067,7 +2053,7 @@
         <v>7.4299998581409454E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
         <v>93</v>
       </c>
@@ -2075,7 +2061,7 @@
         <v>7.4699997901916504E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
         <v>94</v>
       </c>
@@ -2083,7 +2069,7 @@
         <v>7.2400003671646118E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
         <v>95</v>
       </c>
@@ -2091,7 +2077,7 @@
         <v>6.7500002682209015E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
         <v>96</v>
       </c>
@@ -2099,7 +2085,7 @@
         <v>7.3899999260902405E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
         <v>97</v>
       </c>
@@ -2107,7 +2093,7 @@
         <v>7.3700003325939178E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
         <v>98</v>
       </c>
@@ -2115,7 +2101,7 @@
         <v>7.2800002992153168E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
         <v>99</v>
       </c>
@@ -2123,7 +2109,7 @@
         <v>7.2499997913837433E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
         <v>100</v>
       </c>
@@ -2131,7 +2117,7 @@
         <v>7.3700003325939178E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
         <v>101</v>
       </c>
@@ -2139,7 +2125,7 @@
         <v>7.4600003659725189E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
         <v>102</v>
       </c>
@@ -2147,7 +2133,7 @@
         <v>7.4500001966953278E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
         <v>103</v>
       </c>
@@ -2155,7 +2141,7 @@
         <v>7.4299998581409454E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
         <v>104</v>
       </c>
@@ -2163,7 +2149,7 @@
         <v>7.7899999916553497E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
         <v>105</v>
       </c>
@@ -2171,7 +2157,7 @@
         <v>7.6200000941753387E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
         <v>106</v>
       </c>
@@ -2179,7 +2165,7 @@
         <v>7.0600003004074097E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
         <v>107</v>
       </c>
@@ -2187,7 +2173,7 @@
         <v>6.5099999308586121E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
         <v>108</v>
       </c>
@@ -2195,7 +2181,7 @@
         <v>7.5099997222423553E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
         <v>109</v>
       </c>
@@ -2203,7 +2189,7 @@
         <v>7.4799999594688416E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="4" t="s">
         <v>110</v>
       </c>
@@ -2211,7 +2197,7 @@
         <v>7.3299996554851532E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="4" t="s">
         <v>111</v>
       </c>
@@ -2219,7 +2205,7 @@
         <v>7.4000000953674316E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
         <v>112</v>
       </c>
@@ -2227,7 +2213,7 @@
         <v>7.5499996542930603E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
         <v>113</v>
       </c>
@@ -2235,7 +2221,7 @@
         <v>7.6200000941753387E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
         <v>114</v>
       </c>
@@ -2243,7 +2229,7 @@
         <v>7.4799999594688416E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
         <v>115</v>
       </c>
@@ -2251,7 +2237,7 @@
         <v>7.6099999248981476E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
         <v>116</v>
       </c>
@@ -2259,7 +2245,7 @@
         <v>7.5599998235702515E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
         <v>117</v>
       </c>
@@ -2267,7 +2253,7 @@
         <v>7.680000364780426E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
         <v>118</v>
       </c>
@@ -2275,7 +2261,7 @@
         <v>6.9499999284744263E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
         <v>119</v>
       </c>
@@ -2283,7 +2269,7 @@
         <v>6.1700001358985901E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
         <v>120</v>
       </c>
@@ -2291,7 +2277,7 @@
         <v>7.1500003337860107E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
         <v>121</v>
       </c>
@@ -2299,7 +2285,7 @@
         <v>7.5300000607967377E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
         <v>122</v>
       </c>
@@ -2307,7 +2293,7 @@
         <v>7.6300002634525299E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="4" t="s">
         <v>123</v>
       </c>
@@ -2315,7 +2301,7 @@
         <v>7.3799997568130493E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="4" t="s">
         <v>124</v>
       </c>
@@ -2323,7 +2309,7 @@
         <v>7.4100002646446228E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="4" t="s">
         <v>125</v>
       </c>
@@ -2331,7 +2317,7 @@
         <v>7.5499996542930603E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
         <v>126</v>
       </c>
@@ -2339,7 +2325,7 @@
         <v>7.6700001955032349E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
         <v>127</v>
       </c>
@@ -2347,7 +2333,7 @@
         <v>7.5999997556209564E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
         <v>128</v>
       </c>
@@ -2355,7 +2341,7 @@
         <v>7.6399996876716614E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
         <v>129</v>
       </c>
@@ -2363,7 +2349,7 @@
         <v>7.6899997889995575E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>131</v>
       </c>
@@ -2371,12 +2357,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -2384,7 +2370,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -2395,7 +2381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -2406,7 +2392,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -2417,7 +2403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -2428,7 +2414,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -2439,7 +2425,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -2447,7 +2433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -2458,7 +2444,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -2469,7 +2455,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>28</v>
       </c>
@@ -2480,7 +2466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -2488,12 +2474,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="B145" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
         <v>33</v>
       </c>
@@ -2501,7 +2487,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
         <v>34</v>
       </c>
@@ -2509,7 +2495,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" s="4" t="s">
         <v>35</v>
       </c>
@@ -2517,7 +2503,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" s="4" t="s">
         <v>36</v>
       </c>
@@ -2525,7 +2511,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" s="4" t="s">
         <v>37</v>
       </c>
@@ -2533,7 +2519,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
         <v>38</v>
       </c>
@@ -2541,7 +2527,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" s="4" t="s">
         <v>39</v>
       </c>
@@ -2549,7 +2535,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" s="4" t="s">
         <v>40</v>
       </c>
@@ -2557,7 +2543,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
         <v>41</v>
       </c>
@@ -2565,7 +2551,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="4" t="s">
         <v>42</v>
       </c>
@@ -2573,7 +2559,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" s="4" t="s">
         <v>43</v>
       </c>
@@ -2581,7 +2567,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
         <v>44</v>
       </c>
@@ -2589,7 +2575,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" s="4" t="s">
         <v>45</v>
       </c>
@@ -2597,7 +2583,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" s="4" t="s">
         <v>46</v>
       </c>
@@ -2605,7 +2591,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" s="4" t="s">
         <v>47</v>
       </c>
@@ -2613,7 +2599,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="4" t="s">
         <v>48</v>
       </c>
@@ -2621,7 +2607,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" s="4" t="s">
         <v>49</v>
       </c>
@@ -2629,7 +2615,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" s="4" t="s">
         <v>50</v>
       </c>
@@ -2637,7 +2623,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" s="4" t="s">
         <v>51</v>
       </c>
@@ -2645,7 +2631,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" s="4" t="s">
         <v>52</v>
       </c>
@@ -2653,7 +2639,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" s="4" t="s">
         <v>53</v>
       </c>
@@ -2661,7 +2647,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" s="4" t="s">
         <v>54</v>
       </c>
@@ -2669,7 +2655,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" s="4" t="s">
         <v>55</v>
       </c>
@@ -2677,7 +2663,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" s="4" t="s">
         <v>56</v>
       </c>
@@ -2685,7 +2671,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" s="4" t="s">
         <v>57</v>
       </c>
@@ -2693,7 +2679,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" s="4" t="s">
         <v>58</v>
       </c>
@@ -2701,7 +2687,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172" s="4" t="s">
         <v>59</v>
       </c>
@@ -2709,7 +2695,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" s="4" t="s">
         <v>60</v>
       </c>
@@ -2717,7 +2703,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" s="4" t="s">
         <v>61</v>
       </c>
@@ -2725,7 +2711,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" s="4" t="s">
         <v>62</v>
       </c>
@@ -2733,7 +2719,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" s="4" t="s">
         <v>63</v>
       </c>
@@ -2741,7 +2727,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" s="4" t="s">
         <v>64</v>
       </c>
@@ -2749,7 +2735,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" s="4" t="s">
         <v>65</v>
       </c>
@@ -2757,7 +2743,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
         <v>66</v>
       </c>
@@ -2765,7 +2751,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
         <v>67</v>
       </c>
@@ -2773,7 +2759,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
         <v>68</v>
       </c>
@@ -2781,7 +2767,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" s="4" t="s">
         <v>69</v>
       </c>
@@ -2789,7 +2775,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" s="4" t="s">
         <v>70</v>
       </c>
@@ -2797,7 +2783,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" s="4" t="s">
         <v>71</v>
       </c>
@@ -2805,7 +2791,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" s="4" t="s">
         <v>72</v>
       </c>
@@ -2813,7 +2799,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" s="4" t="s">
         <v>73</v>
       </c>
@@ -2821,7 +2807,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" s="4" t="s">
         <v>74</v>
       </c>
@@ -2829,7 +2815,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" s="4" t="s">
         <v>75</v>
       </c>
@@ -2837,7 +2823,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" s="4" t="s">
         <v>76</v>
       </c>
@@ -2845,7 +2831,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" s="4" t="s">
         <v>77</v>
       </c>
@@ -2853,7 +2839,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" s="4" t="s">
         <v>78</v>
       </c>
@@ -2861,7 +2847,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" s="4" t="s">
         <v>79</v>
       </c>
@@ -2869,7 +2855,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" s="4" t="s">
         <v>80</v>
       </c>
@@ -2877,7 +2863,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" s="4" t="s">
         <v>81</v>
       </c>
@@ -2885,7 +2871,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" s="4" t="s">
         <v>82</v>
       </c>
@@ -2893,7 +2879,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" s="4" t="s">
         <v>83</v>
       </c>
@@ -2901,7 +2887,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" s="4" t="s">
         <v>84</v>
       </c>
@@ -2909,7 +2895,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" s="4" t="s">
         <v>85</v>
       </c>
@@ -2917,7 +2903,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" s="4" t="s">
         <v>86</v>
       </c>
@@ -2925,7 +2911,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" s="4" t="s">
         <v>87</v>
       </c>
@@ -2933,7 +2919,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" s="4" t="s">
         <v>88</v>
       </c>
@@ -2941,7 +2927,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202" s="4" t="s">
         <v>89</v>
       </c>
@@ -2949,7 +2935,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203" s="4" t="s">
         <v>90</v>
       </c>
@@ -2957,7 +2943,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204" s="4" t="s">
         <v>91</v>
       </c>
@@ -2965,7 +2951,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205" s="4" t="s">
         <v>92</v>
       </c>
@@ -2973,7 +2959,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206" s="4" t="s">
         <v>93</v>
       </c>
@@ -2981,7 +2967,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207" s="4" t="s">
         <v>94</v>
       </c>
@@ -2989,7 +2975,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208" s="4" t="s">
         <v>95</v>
       </c>
@@ -2997,7 +2983,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209" s="4" t="s">
         <v>96</v>
       </c>
@@ -3005,7 +2991,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210" s="4" t="s">
         <v>97</v>
       </c>
@@ -3013,7 +2999,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211" s="4" t="s">
         <v>98</v>
       </c>
@@ -3021,7 +3007,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212" s="4" t="s">
         <v>99</v>
       </c>
@@ -3029,7 +3015,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213" s="4" t="s">
         <v>100</v>
       </c>
@@ -3037,7 +3023,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214" s="4" t="s">
         <v>101</v>
       </c>
@@ -3045,7 +3031,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215" s="4" t="s">
         <v>102</v>
       </c>
@@ -3053,7 +3039,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216" s="4" t="s">
         <v>103</v>
       </c>
@@ -3061,7 +3047,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217" s="4" t="s">
         <v>104</v>
       </c>
@@ -3069,7 +3055,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218" s="4" t="s">
         <v>105</v>
       </c>
@@ -3077,7 +3063,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219" s="4" t="s">
         <v>106</v>
       </c>
@@ -3085,7 +3071,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220" s="4" t="s">
         <v>107</v>
       </c>
@@ -3093,7 +3079,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221" s="4" t="s">
         <v>108</v>
       </c>
@@ -3101,7 +3087,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222" s="4" t="s">
         <v>109</v>
       </c>
@@ -3109,7 +3095,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223" s="4" t="s">
         <v>110</v>
       </c>
@@ -3117,7 +3103,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224" s="4" t="s">
         <v>111</v>
       </c>
@@ -3125,7 +3111,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225" s="4" t="s">
         <v>112</v>
       </c>
@@ -3133,7 +3119,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226" s="4" t="s">
         <v>113</v>
       </c>
@@ -3141,7 +3127,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227" s="4" t="s">
         <v>114</v>
       </c>
@@ -3149,7 +3135,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2">
       <c r="A228" s="4" t="s">
         <v>115</v>
       </c>
@@ -3157,7 +3143,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229" s="4" t="s">
         <v>116</v>
       </c>
@@ -3165,7 +3151,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230" s="4" t="s">
         <v>117</v>
       </c>
@@ -3173,7 +3159,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231" s="4" t="s">
         <v>118</v>
       </c>
@@ -3181,7 +3167,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232" s="4" t="s">
         <v>119</v>
       </c>
@@ -3189,7 +3175,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233" s="4" t="s">
         <v>120</v>
       </c>
@@ -3197,7 +3183,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234" s="4" t="s">
         <v>121</v>
       </c>
@@ -3205,7 +3191,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235" s="4" t="s">
         <v>122</v>
       </c>
@@ -3213,7 +3199,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236" s="4" t="s">
         <v>123</v>
       </c>
@@ -3221,7 +3207,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237" s="4" t="s">
         <v>124</v>
       </c>
@@ -3229,7 +3215,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2">
       <c r="A238" s="4" t="s">
         <v>125</v>
       </c>
@@ -3237,7 +3223,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239" s="4" t="s">
         <v>126</v>
       </c>
@@ -3245,7 +3231,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240" s="4" t="s">
         <v>127</v>
       </c>
@@ -3253,7 +3239,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2">
       <c r="A241" s="4" t="s">
         <v>128</v>
       </c>
@@ -3261,7 +3247,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2">
       <c r="A242" s="4" t="s">
         <v>129</v>
       </c>
@@ -3269,7 +3255,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>131</v>
       </c>
@@ -3279,7 +3265,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3291,9 +3283,9 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3301,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3312,7 +3304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3323,7 +3315,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3331,7 +3323,7 @@
         <v>41855</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3339,7 +3331,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3347,7 +3339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3355,7 +3347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3363,12 +3355,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -3388,7 +3380,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -3408,12 +3400,12 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -3421,7 +3413,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3432,7 +3424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3443,7 +3435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -3451,7 +3443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -3462,7 +3454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3470,12 +3462,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -3483,7 +3475,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -3491,7 +3483,7 @@
         <v>9.3500003218650818E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -3499,7 +3491,7 @@
         <v>9.0999998152256012E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -3507,7 +3499,7 @@
         <v>9.2000000178813934E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -3515,7 +3507,7 @@
         <v>9.1300003230571747E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -3523,7 +3515,7 @@
         <v>9.1099999845027924E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
@@ -3531,7 +3523,7 @@
         <v>9.1200001537799835E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
@@ -3539,7 +3531,7 @@
         <v>9.0000003576278687E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -3547,7 +3539,7 @@
         <v>9.0599998831748962E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
@@ -3555,7 +3547,7 @@
         <v>9.1700002551078796E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
@@ -3563,7 +3555,7 @@
         <v>9.1799996793270111E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -3571,7 +3563,7 @@
         <v>9.2600002884864807E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
@@ -3579,7 +3571,7 @@
         <v>9.0099997818470001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
@@ -3587,7 +3579,7 @@
         <v>9.4700001180171967E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -3595,7 +3587,7 @@
         <v>9.2600002884864807E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -3603,7 +3595,7 @@
         <v>8.7600000202655792E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -3611,7 +3603,7 @@
         <v>9.1799996793270111E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -3619,7 +3611,7 @@
         <v>9.1499999165534973E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
@@ -3627,7 +3619,7 @@
         <v>9.0800002217292786E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
@@ -3635,7 +3627,7 @@
         <v>9.1600000858306885E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
@@ -3643,7 +3635,7 @@
         <v>9.0599998831748962E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
@@ -3651,7 +3643,7 @@
         <v>9.2200003564357758E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
@@ -3659,7 +3651,7 @@
         <v>9.0499997138977051E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
@@ -3667,7 +3659,7 @@
         <v>9.1099999845027924E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
@@ -3675,7 +3667,7 @@
         <v>8.8699996471405029E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
@@ -3683,7 +3675,7 @@
         <v>9.3599997460842133E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
@@ -3691,7 +3683,7 @@
         <v>9.3199998140335083E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
@@ -3699,7 +3691,7 @@
         <v>9.4200000166893005E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
@@ -3707,7 +3699,7 @@
         <v>9.0999998152256012E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
@@ -3715,7 +3707,7 @@
         <v>9.2200003564357758E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
@@ -3723,7 +3715,7 @@
         <v>9.1700002551078796E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>64</v>
       </c>
@@ -3731,7 +3723,7 @@
         <v>9.1399997472763062E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
@@ -3739,7 +3731,7 @@
         <v>9.1499999165534973E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
@@ -3747,7 +3739,7 @@
         <v>9.0800002217292786E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
@@ -3755,7 +3747,7 @@
         <v>8.959999680519104E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>68</v>
       </c>
@@ -3763,7 +3755,7 @@
         <v>9.0199999511241913E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
@@ -3771,7 +3763,7 @@
         <v>8.8399998843669891E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
@@ -3779,7 +3771,7 @@
         <v>9.3199998140335083E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
@@ -3787,7 +3779,7 @@
         <v>9.3599997460842133E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
@@ -3795,7 +3787,7 @@
         <v>9.2000000178813934E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
@@ -3803,7 +3795,7 @@
         <v>9.1200001537799835E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
         <v>74</v>
       </c>
@@ -3811,7 +3803,7 @@
         <v>9.0800002217292786E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
@@ -3819,7 +3811,7 @@
         <v>9.0700000524520874E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
         <v>76</v>
       </c>
@@ -3827,7 +3819,7 @@
         <v>9.1499999165534973E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>77</v>
       </c>
@@ -3835,7 +3827,7 @@
         <v>9.0000003576278687E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
@@ -3843,7 +3835,7 @@
         <v>9.2900000512599945E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
@@ -3851,7 +3843,7 @@
         <v>9.1300003230571747E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>80</v>
       </c>
@@ -3859,7 +3851,7 @@
         <v>9.1600000858306885E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>81</v>
       </c>
@@ -3867,7 +3859,7 @@
         <v>8.9299999177455902E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
@@ -3875,7 +3867,7 @@
         <v>9.3500003218650818E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
@@ -3883,7 +3875,7 @@
         <v>9.1700002551078796E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>84</v>
       </c>
@@ -3891,7 +3883,7 @@
         <v>9.0300001204013824E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>85</v>
       </c>
@@ -3899,7 +3891,7 @@
         <v>9.0599998831748962E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>86</v>
       </c>
@@ -3907,7 +3899,7 @@
         <v>9.2500001192092896E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
@@ -3915,7 +3907,7 @@
         <v>9.2200003564357758E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>88</v>
       </c>
@@ -3923,7 +3915,7 @@
         <v>9.0300001204013824E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>89</v>
       </c>
@@ -3931,7 +3923,7 @@
         <v>8.8799998164176941E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>90</v>
       </c>
@@ -3939,7 +3931,7 @@
         <v>9.0400002896785736E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>91</v>
       </c>
@@ -3947,7 +3939,7 @@
         <v>9.08999964594841E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>92</v>
       </c>
@@ -3955,7 +3947,7 @@
         <v>9.0999998152256012E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
         <v>93</v>
       </c>
@@ -3963,7 +3955,7 @@
         <v>9.0599998831748962E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
         <v>94</v>
       </c>
@@ -3971,7 +3963,7 @@
         <v>9.5700003206729889E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
         <v>95</v>
       </c>
@@ -3979,7 +3971,7 @@
         <v>9.2299997806549072E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
         <v>96</v>
       </c>
@@ -3987,7 +3979,7 @@
         <v>9.2500001192092896E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
         <v>97</v>
       </c>
@@ -3995,7 +3987,7 @@
         <v>9.0000003576278687E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
         <v>98</v>
       </c>
@@ -4003,7 +3995,7 @@
         <v>8.9299999177455902E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
         <v>99</v>
       </c>
@@ -4011,7 +4003,7 @@
         <v>9.2600002884864807E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
         <v>100</v>
       </c>
@@ -4019,7 +4011,7 @@
         <v>9.2600002884864807E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
         <v>101</v>
       </c>
@@ -4027,7 +4019,7 @@
         <v>9.3400001525878906E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
         <v>102</v>
       </c>
@@ -4035,7 +4027,7 @@
         <v>9.3599997460842133E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
         <v>103</v>
       </c>
@@ -4043,7 +4035,7 @@
         <v>9.1899998486042023E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
         <v>104</v>
       </c>
@@ -4051,7 +4043,7 @@
         <v>9.2500001192092896E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
         <v>105</v>
       </c>
@@ -4059,7 +4051,7 @@
         <v>9.2200003564357758E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
         <v>106</v>
       </c>
@@ -4067,7 +4059,7 @@
         <v>9.6000000834465027E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
         <v>107</v>
       </c>
@@ -4075,7 +4067,7 @@
         <v>9.1399997472763062E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
         <v>108</v>
       </c>
@@ -4083,7 +4075,7 @@
         <v>9.4200000166893005E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
         <v>109</v>
       </c>
@@ -4091,7 +4083,7 @@
         <v>9.3699999153614044E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="4" t="s">
         <v>110</v>
       </c>
@@ -4099,7 +4091,7 @@
         <v>9.2900000512599945E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="4" t="s">
         <v>111</v>
       </c>
@@ -4107,7 +4099,7 @@
         <v>9.3400001525878906E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
         <v>112</v>
       </c>
@@ -4115,7 +4107,7 @@
         <v>9.4599999487400055E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
         <v>113</v>
       </c>
@@ -4123,7 +4115,7 @@
         <v>9.3999996781349182E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
         <v>114</v>
       </c>
@@ -4131,7 +4123,7 @@
         <v>9.2900000512599945E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
         <v>115</v>
       </c>
@@ -4139,7 +4131,7 @@
         <v>9.0499997138977051E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
         <v>116</v>
       </c>
@@ -4147,7 +4139,7 @@
         <v>9.0700000524520874E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
         <v>117</v>
       </c>
@@ -4155,7 +4147,7 @@
         <v>9.2799998819828033E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
         <v>118</v>
       </c>
@@ -4163,7 +4155,7 @@
         <v>9.3699999153614044E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
         <v>119</v>
       </c>
@@ -4171,7 +4163,7 @@
         <v>9.2000000178813934E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
         <v>120</v>
       </c>
@@ -4179,7 +4171,7 @@
         <v>9.1099999845027924E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
         <v>121</v>
       </c>
@@ -4187,7 +4179,7 @@
         <v>9.2500001192092896E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
         <v>122</v>
       </c>
@@ -4195,7 +4187,7 @@
         <v>9.3999996781349182E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="4" t="s">
         <v>123</v>
       </c>
@@ -4203,7 +4195,7 @@
         <v>9.2799998819828033E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="4" t="s">
         <v>124</v>
       </c>
@@ -4211,7 +4203,7 @@
         <v>9.3000002205371857E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="4" t="s">
         <v>125</v>
       </c>
@@ -4219,7 +4211,7 @@
         <v>9.4099998474121094E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
         <v>126</v>
       </c>
@@ -4227,7 +4219,7 @@
         <v>9.3400001525878906E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
         <v>127</v>
       </c>
@@ -4235,7 +4227,7 @@
         <v>9.1399997472763062E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
         <v>128</v>
       </c>
@@ -4243,7 +4235,7 @@
         <v>9.1899998486042023E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
         <v>129</v>
       </c>
@@ -4251,7 +4243,7 @@
         <v>9.1499999165534973E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>131</v>
       </c>
@@ -4259,12 +4251,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -4272,7 +4264,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -4283,7 +4275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -4294,7 +4286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -4305,7 +4297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -4316,7 +4308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -4327,7 +4319,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -4335,7 +4327,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -4346,7 +4338,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -4357,7 +4349,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>28</v>
       </c>
@@ -4368,7 +4360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -4376,12 +4368,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="B145" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
         <v>33</v>
       </c>
@@ -4389,7 +4381,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
         <v>34</v>
       </c>
@@ -4397,7 +4389,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" s="4" t="s">
         <v>35</v>
       </c>
@@ -4405,7 +4397,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" s="4" t="s">
         <v>36</v>
       </c>
@@ -4413,7 +4405,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" s="4" t="s">
         <v>37</v>
       </c>
@@ -4421,7 +4413,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
         <v>38</v>
       </c>
@@ -4429,7 +4421,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" s="4" t="s">
         <v>39</v>
       </c>
@@ -4437,7 +4429,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" s="4" t="s">
         <v>40</v>
       </c>
@@ -4445,7 +4437,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
         <v>41</v>
       </c>
@@ -4453,7 +4445,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="4" t="s">
         <v>42</v>
       </c>
@@ -4461,7 +4453,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" s="4" t="s">
         <v>43</v>
       </c>
@@ -4469,7 +4461,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
         <v>44</v>
       </c>
@@ -4477,7 +4469,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" s="4" t="s">
         <v>45</v>
       </c>
@@ -4485,7 +4477,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" s="4" t="s">
         <v>46</v>
       </c>
@@ -4493,7 +4485,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" s="4" t="s">
         <v>47</v>
       </c>
@@ -4501,7 +4493,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="4" t="s">
         <v>48</v>
       </c>
@@ -4509,7 +4501,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" s="4" t="s">
         <v>49</v>
       </c>
@@ -4517,7 +4509,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" s="4" t="s">
         <v>50</v>
       </c>
@@ -4525,7 +4517,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" s="4" t="s">
         <v>51</v>
       </c>
@@ -4533,7 +4525,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" s="4" t="s">
         <v>52</v>
       </c>
@@ -4541,7 +4533,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" s="4" t="s">
         <v>53</v>
       </c>
@@ -4549,7 +4541,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" s="4" t="s">
         <v>54</v>
       </c>
@@ -4557,7 +4549,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" s="4" t="s">
         <v>55</v>
       </c>
@@ -4565,7 +4557,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" s="4" t="s">
         <v>56</v>
       </c>
@@ -4573,7 +4565,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" s="4" t="s">
         <v>57</v>
       </c>
@@ -4581,7 +4573,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" s="4" t="s">
         <v>58</v>
       </c>
@@ -4589,7 +4581,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172" s="4" t="s">
         <v>59</v>
       </c>
@@ -4597,7 +4589,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" s="4" t="s">
         <v>60</v>
       </c>
@@ -4605,7 +4597,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" s="4" t="s">
         <v>61</v>
       </c>
@@ -4613,7 +4605,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" s="4" t="s">
         <v>62</v>
       </c>
@@ -4621,7 +4613,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" s="4" t="s">
         <v>63</v>
       </c>
@@ -4629,7 +4621,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" s="4" t="s">
         <v>64</v>
       </c>
@@ -4637,7 +4629,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" s="4" t="s">
         <v>65</v>
       </c>
@@ -4645,7 +4637,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
         <v>66</v>
       </c>
@@ -4653,7 +4645,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
         <v>67</v>
       </c>
@@ -4661,7 +4653,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
         <v>68</v>
       </c>
@@ -4669,7 +4661,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" s="4" t="s">
         <v>69</v>
       </c>
@@ -4677,7 +4669,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" s="4" t="s">
         <v>70</v>
       </c>
@@ -4685,7 +4677,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" s="4" t="s">
         <v>71</v>
       </c>
@@ -4693,7 +4685,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" s="4" t="s">
         <v>72</v>
       </c>
@@ -4701,7 +4693,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" s="4" t="s">
         <v>73</v>
       </c>
@@ -4709,7 +4701,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" s="4" t="s">
         <v>74</v>
       </c>
@@ -4717,7 +4709,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" s="4" t="s">
         <v>75</v>
       </c>
@@ -4725,7 +4717,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" s="4" t="s">
         <v>76</v>
       </c>
@@ -4733,7 +4725,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" s="4" t="s">
         <v>77</v>
       </c>
@@ -4741,7 +4733,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" s="4" t="s">
         <v>78</v>
       </c>
@@ -4749,7 +4741,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" s="4" t="s">
         <v>79</v>
       </c>
@@ -4757,7 +4749,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" s="4" t="s">
         <v>80</v>
       </c>
@@ -4765,7 +4757,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" s="4" t="s">
         <v>81</v>
       </c>
@@ -4773,7 +4765,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" s="4" t="s">
         <v>82</v>
       </c>
@@ -4781,7 +4773,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" s="4" t="s">
         <v>83</v>
       </c>
@@ -4789,7 +4781,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" s="4" t="s">
         <v>84</v>
       </c>
@@ -4797,7 +4789,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" s="4" t="s">
         <v>85</v>
       </c>
@@ -4805,7 +4797,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" s="4" t="s">
         <v>86</v>
       </c>
@@ -4813,7 +4805,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" s="4" t="s">
         <v>87</v>
       </c>
@@ -4821,7 +4813,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" s="4" t="s">
         <v>88</v>
       </c>
@@ -4829,7 +4821,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202" s="4" t="s">
         <v>89</v>
       </c>
@@ -4837,7 +4829,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203" s="4" t="s">
         <v>90</v>
       </c>
@@ -4845,7 +4837,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204" s="4" t="s">
         <v>91</v>
       </c>
@@ -4853,7 +4845,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205" s="4" t="s">
         <v>92</v>
       </c>
@@ -4861,7 +4853,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206" s="4" t="s">
         <v>93</v>
       </c>
@@ -4869,7 +4861,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207" s="4" t="s">
         <v>94</v>
       </c>
@@ -4877,7 +4869,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208" s="4" t="s">
         <v>95</v>
       </c>
@@ -4885,7 +4877,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209" s="4" t="s">
         <v>96</v>
       </c>
@@ -4893,7 +4885,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210" s="4" t="s">
         <v>97</v>
       </c>
@@ -4901,7 +4893,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211" s="4" t="s">
         <v>98</v>
       </c>
@@ -4909,7 +4901,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212" s="4" t="s">
         <v>99</v>
       </c>
@@ -4917,7 +4909,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213" s="4" t="s">
         <v>100</v>
       </c>
@@ -4925,7 +4917,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214" s="4" t="s">
         <v>101</v>
       </c>
@@ -4933,7 +4925,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215" s="4" t="s">
         <v>102</v>
       </c>
@@ -4941,7 +4933,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216" s="4" t="s">
         <v>103</v>
       </c>
@@ -4949,7 +4941,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217" s="4" t="s">
         <v>104</v>
       </c>
@@ -4957,7 +4949,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218" s="4" t="s">
         <v>105</v>
       </c>
@@ -4965,7 +4957,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219" s="4" t="s">
         <v>106</v>
       </c>
@@ -4973,7 +4965,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220" s="4" t="s">
         <v>107</v>
       </c>
@@ -4981,7 +4973,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221" s="4" t="s">
         <v>108</v>
       </c>
@@ -4989,7 +4981,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222" s="4" t="s">
         <v>109</v>
       </c>
@@ -4997,7 +4989,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223" s="4" t="s">
         <v>110</v>
       </c>
@@ -5005,7 +4997,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224" s="4" t="s">
         <v>111</v>
       </c>
@@ -5013,7 +5005,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225" s="4" t="s">
         <v>112</v>
       </c>
@@ -5021,7 +5013,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226" s="4" t="s">
         <v>113</v>
       </c>
@@ -5029,7 +5021,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227" s="4" t="s">
         <v>114</v>
       </c>
@@ -5037,7 +5029,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2">
       <c r="A228" s="4" t="s">
         <v>115</v>
       </c>
@@ -5045,7 +5037,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229" s="4" t="s">
         <v>116</v>
       </c>
@@ -5053,7 +5045,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230" s="4" t="s">
         <v>117</v>
       </c>
@@ -5061,7 +5053,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231" s="4" t="s">
         <v>118</v>
       </c>
@@ -5069,7 +5061,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232" s="4" t="s">
         <v>119</v>
       </c>
@@ -5077,7 +5069,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233" s="4" t="s">
         <v>120</v>
       </c>
@@ -5085,7 +5077,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234" s="4" t="s">
         <v>121</v>
       </c>
@@ -5093,7 +5085,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235" s="4" t="s">
         <v>122</v>
       </c>
@@ -5101,7 +5093,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236" s="4" t="s">
         <v>123</v>
       </c>
@@ -5109,7 +5101,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237" s="4" t="s">
         <v>124</v>
       </c>
@@ -5117,7 +5109,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2">
       <c r="A238" s="4" t="s">
         <v>125</v>
       </c>
@@ -5125,7 +5117,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239" s="4" t="s">
         <v>126</v>
       </c>
@@ -5133,7 +5125,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240" s="4" t="s">
         <v>127</v>
       </c>
@@ -5141,7 +5133,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2">
       <c r="A241" s="4" t="s">
         <v>128</v>
       </c>
@@ -5149,7 +5141,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2">
       <c r="A242" s="4" t="s">
         <v>129</v>
       </c>
@@ -5157,7 +5149,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>131</v>
       </c>
@@ -5168,6 +5160,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5179,9 +5176,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5192,7 +5189,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5203,7 +5200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5211,7 +5208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5219,7 +5216,7 @@
         <v>41855</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5227,7 +5224,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5235,7 +5232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5243,7 +5240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -5251,12 +5248,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -5276,7 +5273,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -5296,12 +5293,12 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -5309,7 +5306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -5320,7 +5317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -5331,7 +5328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -5339,7 +5336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -5350,7 +5347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -5358,12 +5355,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -5371,7 +5368,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -5379,7 +5376,7 @@
         <v>8.6300000548362732E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -5387,7 +5384,7 @@
         <v>8.7499998509883881E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -5395,7 +5392,7 @@
         <v>8.7200000882148743E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -5403,7 +5400,7 @@
         <v>8.7399996817111969E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -5411,7 +5408,7 @@
         <v>8.6999997496604919E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
@@ -5419,7 +5416,7 @@
         <v>8.5500001907348633E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
@@ -5427,7 +5424,7 @@
         <v>8.7099999189376831E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -5435,7 +5432,7 @@
         <v>8.6099997162818909E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
@@ -5443,7 +5440,7 @@
         <v>8.6000002920627594E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
@@ -5451,7 +5448,7 @@
         <v>8.5699997842311859E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -5459,7 +5456,7 @@
         <v>8.7200000882148743E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
@@ -5467,7 +5464,7 @@
         <v>8.7300002574920654E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
@@ -5475,7 +5472,7 @@
         <v>9.0199999511241913E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -5483,7 +5480,7 @@
         <v>8.6999997496604919E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -5491,7 +5488,7 @@
         <v>8.449999988079071E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -5499,7 +5496,7 @@
         <v>8.6499996483325958E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -5507,7 +5504,7 @@
         <v>8.5900001227855682E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
@@ -5515,7 +5512,7 @@
         <v>8.5000000894069672E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
@@ -5523,7 +5520,7 @@
         <v>8.7399996817111969E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
@@ -5531,7 +5528,7 @@
         <v>8.659999817609787E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
@@ -5539,7 +5536,7 @@
         <v>8.0899998545646667E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
@@ -5547,7 +5544,7 @@
         <v>8.320000022649765E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
@@ -5555,7 +5552,7 @@
         <v>8.3499997854232788E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
@@ -5563,7 +5560,7 @@
         <v>8.7499998509883881E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
@@ -5571,7 +5568,7 @@
         <v>8.7300002574920654E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
@@ -5579,7 +5576,7 @@
         <v>8.529999852180481E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
@@ -5587,7 +5584,7 @@
         <v>8.5699997842311859E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
@@ -5595,7 +5592,7 @@
         <v>8.6499996483325958E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
@@ -5603,7 +5600,7 @@
         <v>8.5799999535083771E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
@@ -5611,7 +5608,7 @@
         <v>8.489999920129776E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>64</v>
       </c>
@@ -5619,7 +5616,7 @@
         <v>8.3899997174739838E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
@@ -5627,7 +5624,7 @@
         <v>8.5600003600120544E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
@@ -5635,7 +5632,7 @@
         <v>8.4700003266334534E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
@@ -5643,7 +5640,7 @@
         <v>8.3099998533725739E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>68</v>
       </c>
@@ -5651,7 +5648,7 @@
         <v>8.3899997174739838E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
@@ -5659,7 +5656,7 @@
         <v>8.6699999868869781E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
@@ -5667,7 +5664,7 @@
         <v>8.7300002574920654E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
@@ -5675,7 +5672,7 @@
         <v>8.3999998867511749E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
@@ -5683,7 +5680,7 @@
         <v>8.6800001561641693E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
@@ -5691,7 +5688,7 @@
         <v>8.2900002598762512E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
         <v>74</v>
       </c>
@@ -5699,7 +5696,7 @@
         <v>8.449999988079071E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
@@ -5707,7 +5704,7 @@
         <v>8.3700001239776611E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
         <v>76</v>
       </c>
@@ -5715,7 +5712,7 @@
         <v>8.2000002264976501E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>77</v>
       </c>
@@ -5723,7 +5720,7 @@
         <v>8.3899997174739838E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
@@ -5731,7 +5728,7 @@
         <v>8.2800000905990601E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
@@ -5739,7 +5736,7 @@
         <v>8.5900001227855682E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>80</v>
       </c>
@@ -5747,7 +5744,7 @@
         <v>8.8500000536441803E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>81</v>
       </c>
@@ -5755,7 +5752,7 @@
         <v>8.8600002229213715E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
@@ -5763,7 +5760,7 @@
         <v>8.6400002241134644E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
@@ -5771,7 +5768,7 @@
         <v>8.6400002241134644E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>84</v>
       </c>
@@ -5779,7 +5776,7 @@
         <v>8.7099999189376831E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>85</v>
       </c>
@@ -5787,7 +5784,7 @@
         <v>8.1799998879432678E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>86</v>
       </c>
@@ -5795,7 +5792,7 @@
         <v>8.4299996495246887E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
@@ -5803,7 +5800,7 @@
         <v>8.2999996840953827E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>88</v>
       </c>
@@ -5811,7 +5808,7 @@
         <v>8.320000022649765E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>89</v>
       </c>
@@ -5819,7 +5816,7 @@
         <v>8.0300003290176392E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>90</v>
       </c>
@@ -5827,7 +5824,7 @@
         <v>8.6699999868869781E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>91</v>
       </c>
@@ -5835,7 +5832,7 @@
         <v>8.8699996471405029E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>92</v>
       </c>
@@ -5843,7 +5840,7 @@
         <v>8.6900003254413605E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
         <v>93</v>
       </c>
@@ -5851,7 +5848,7 @@
         <v>8.6800001561641693E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
         <v>94</v>
       </c>
@@ -5859,7 +5856,7 @@
         <v>8.6900003254413605E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
         <v>95</v>
       </c>
@@ -5867,7 +5864,7 @@
         <v>8.4100000560283661E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
         <v>96</v>
       </c>
@@ -5875,7 +5872,7 @@
         <v>8.3300001919269562E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
         <v>97</v>
       </c>
@@ -5883,7 +5880,7 @@
         <v>8.2999996840953827E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
         <v>98</v>
       </c>
@@ -5891,7 +5888,7 @@
         <v>8.4100000560283661E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
         <v>99</v>
       </c>
@@ -5899,7 +5896,7 @@
         <v>8.2900002598762512E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
         <v>100</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>8.5000000894069672E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
         <v>101</v>
       </c>
@@ -5915,7 +5912,7 @@
         <v>8.3899997174739838E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
         <v>102</v>
       </c>
@@ -5923,7 +5920,7 @@
         <v>8.2900002598762512E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
         <v>103</v>
       </c>
@@ -5931,7 +5928,7 @@
         <v>8.5600003600120544E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
         <v>104</v>
       </c>
@@ -5939,7 +5936,7 @@
         <v>8.7399996817111969E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
         <v>105</v>
       </c>
@@ -5947,7 +5944,7 @@
         <v>8.7999999523162842E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
         <v>106</v>
       </c>
@@ -5955,7 +5952,7 @@
         <v>8.619999885559082E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
         <v>107</v>
       </c>
@@ -5963,7 +5960,7 @@
         <v>8.5199996829032898E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
         <v>108</v>
       </c>
@@ -5971,7 +5968,7 @@
         <v>8.5699997842311859E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
         <v>109</v>
       </c>
@@ -5979,7 +5976,7 @@
         <v>8.4700003266334534E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="4" t="s">
         <v>110</v>
       </c>
@@ -5987,7 +5984,7 @@
         <v>8.489999920129776E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="4" t="s">
         <v>111</v>
       </c>
@@ -5995,7 +5992,7 @@
         <v>8.5400000214576721E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
         <v>112</v>
       </c>
@@ -6003,7 +6000,7 @@
         <v>8.6400002241134644E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
         <v>113</v>
       </c>
@@ -6011,7 +6008,7 @@
         <v>8.6499996483325958E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
         <v>114</v>
       </c>
@@ -6019,7 +6016,7 @@
         <v>8.4600001573562622E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
         <v>115</v>
       </c>
@@ -6027,7 +6024,7 @@
         <v>8.4700003266334534E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
         <v>116</v>
       </c>
@@ -6035,7 +6032,7 @@
         <v>8.7200000882148743E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
         <v>117</v>
       </c>
@@ -6043,7 +6040,7 @@
         <v>8.829999715089798E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
         <v>118</v>
       </c>
@@ -6051,7 +6048,7 @@
         <v>8.8600002229213715E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
         <v>119</v>
       </c>
@@ -6059,7 +6056,7 @@
         <v>8.6000002920627594E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
         <v>120</v>
       </c>
@@ -6067,7 +6064,7 @@
         <v>8.5199996829032898E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
         <v>121</v>
       </c>
@@ -6075,7 +6072,7 @@
         <v>8.6300000548362732E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
         <v>122</v>
       </c>
@@ -6083,7 +6080,7 @@
         <v>8.7399996817111969E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="4" t="s">
         <v>123</v>
       </c>
@@ -6091,7 +6088,7 @@
         <v>8.5699997842311859E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="4" t="s">
         <v>124</v>
       </c>
@@ -6099,7 +6096,7 @@
         <v>8.5900001227855682E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="4" t="s">
         <v>125</v>
       </c>
@@ -6107,7 +6104,7 @@
         <v>8.7700001895427704E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
         <v>126</v>
       </c>
@@ -6115,7 +6112,7 @@
         <v>9.0199999511241913E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
         <v>127</v>
       </c>
@@ -6123,7 +6120,7 @@
         <v>8.7300002574920654E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
         <v>128</v>
       </c>
@@ -6131,7 +6128,7 @@
         <v>8.919999748468399E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
         <v>129</v>
       </c>
@@ -6139,7 +6136,7 @@
         <v>9.0199999511241913E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>131</v>
       </c>
@@ -6147,12 +6144,12 @@
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -6160,7 +6157,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -6171,7 +6168,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -6182,7 +6179,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -6193,7 +6190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -6204,7 +6201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -6215,7 +6212,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -6223,7 +6220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -6234,7 +6231,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -6245,7 +6242,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>28</v>
       </c>
@@ -6256,7 +6253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -6264,12 +6261,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="B145" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
         <v>33</v>
       </c>
@@ -6277,7 +6274,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
         <v>34</v>
       </c>
@@ -6285,7 +6282,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" s="4" t="s">
         <v>35</v>
       </c>
@@ -6293,7 +6290,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" s="4" t="s">
         <v>36</v>
       </c>
@@ -6301,7 +6298,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" s="4" t="s">
         <v>37</v>
       </c>
@@ -6309,7 +6306,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
         <v>38</v>
       </c>
@@ -6317,7 +6314,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" s="4" t="s">
         <v>39</v>
       </c>
@@ -6325,7 +6322,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" s="4" t="s">
         <v>40</v>
       </c>
@@ -6333,7 +6330,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
         <v>41</v>
       </c>
@@ -6341,7 +6338,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="4" t="s">
         <v>42</v>
       </c>
@@ -6349,7 +6346,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" s="4" t="s">
         <v>43</v>
       </c>
@@ -6357,7 +6354,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
         <v>44</v>
       </c>
@@ -6365,7 +6362,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" s="4" t="s">
         <v>45</v>
       </c>
@@ -6373,7 +6370,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" s="4" t="s">
         <v>46</v>
       </c>
@@ -6381,7 +6378,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" s="4" t="s">
         <v>47</v>
       </c>
@@ -6389,7 +6386,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="4" t="s">
         <v>48</v>
       </c>
@@ -6397,7 +6394,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" s="4" t="s">
         <v>49</v>
       </c>
@@ -6405,7 +6402,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" s="4" t="s">
         <v>50</v>
       </c>
@@ -6413,7 +6410,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" s="4" t="s">
         <v>51</v>
       </c>
@@ -6421,7 +6418,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" s="4" t="s">
         <v>52</v>
       </c>
@@ -6429,7 +6426,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" s="4" t="s">
         <v>53</v>
       </c>
@@ -6437,7 +6434,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" s="4" t="s">
         <v>54</v>
       </c>
@@ -6445,7 +6442,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" s="4" t="s">
         <v>55</v>
       </c>
@@ -6453,7 +6450,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" s="4" t="s">
         <v>56</v>
       </c>
@@ -6461,7 +6458,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" s="4" t="s">
         <v>57</v>
       </c>
@@ -6469,7 +6466,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" s="4" t="s">
         <v>58</v>
       </c>
@@ -6477,7 +6474,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172" s="4" t="s">
         <v>59</v>
       </c>
@@ -6485,7 +6482,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" s="4" t="s">
         <v>60</v>
       </c>
@@ -6493,7 +6490,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" s="4" t="s">
         <v>61</v>
       </c>
@@ -6501,7 +6498,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" s="4" t="s">
         <v>62</v>
       </c>
@@ -6509,7 +6506,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" s="4" t="s">
         <v>63</v>
       </c>
@@ -6517,7 +6514,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" s="4" t="s">
         <v>64</v>
       </c>
@@ -6525,7 +6522,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" s="4" t="s">
         <v>65</v>
       </c>
@@ -6533,7 +6530,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
         <v>66</v>
       </c>
@@ -6541,7 +6538,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
         <v>67</v>
       </c>
@@ -6549,7 +6546,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
         <v>68</v>
       </c>
@@ -6557,7 +6554,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" s="4" t="s">
         <v>69</v>
       </c>
@@ -6565,7 +6562,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" s="4" t="s">
         <v>70</v>
       </c>
@@ -6573,7 +6570,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" s="4" t="s">
         <v>71</v>
       </c>
@@ -6581,7 +6578,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" s="4" t="s">
         <v>72</v>
       </c>
@@ -6589,7 +6586,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" s="4" t="s">
         <v>73</v>
       </c>
@@ -6597,7 +6594,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" s="4" t="s">
         <v>74</v>
       </c>
@@ -6605,7 +6602,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" s="4" t="s">
         <v>75</v>
       </c>
@@ -6613,7 +6610,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" s="4" t="s">
         <v>76</v>
       </c>
@@ -6621,7 +6618,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" s="4" t="s">
         <v>77</v>
       </c>
@@ -6629,7 +6626,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" s="4" t="s">
         <v>78</v>
       </c>
@@ -6637,7 +6634,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" s="4" t="s">
         <v>79</v>
       </c>
@@ -6645,7 +6642,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" s="4" t="s">
         <v>80</v>
       </c>
@@ -6653,7 +6650,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" s="4" t="s">
         <v>81</v>
       </c>
@@ -6661,7 +6658,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" s="4" t="s">
         <v>82</v>
       </c>
@@ -6669,7 +6666,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" s="4" t="s">
         <v>83</v>
       </c>
@@ -6677,7 +6674,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" s="4" t="s">
         <v>84</v>
       </c>
@@ -6685,7 +6682,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" s="4" t="s">
         <v>85</v>
       </c>
@@ -6693,7 +6690,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" s="4" t="s">
         <v>86</v>
       </c>
@@ -6701,7 +6698,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" s="4" t="s">
         <v>87</v>
       </c>
@@ -6709,7 +6706,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" s="4" t="s">
         <v>88</v>
       </c>
@@ -6717,7 +6714,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202" s="4" t="s">
         <v>89</v>
       </c>
@@ -6725,7 +6722,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203" s="4" t="s">
         <v>90</v>
       </c>
@@ -6733,7 +6730,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204" s="4" t="s">
         <v>91</v>
       </c>
@@ -6741,7 +6738,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205" s="4" t="s">
         <v>92</v>
       </c>
@@ -6749,7 +6746,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206" s="4" t="s">
         <v>93</v>
       </c>
@@ -6757,7 +6754,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207" s="4" t="s">
         <v>94</v>
       </c>
@@ -6765,7 +6762,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208" s="4" t="s">
         <v>95</v>
       </c>
@@ -6773,7 +6770,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209" s="4" t="s">
         <v>96</v>
       </c>
@@ -6781,7 +6778,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210" s="4" t="s">
         <v>97</v>
       </c>
@@ -6789,7 +6786,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211" s="4" t="s">
         <v>98</v>
       </c>
@@ -6797,7 +6794,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212" s="4" t="s">
         <v>99</v>
       </c>
@@ -6805,7 +6802,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213" s="4" t="s">
         <v>100</v>
       </c>
@@ -6813,7 +6810,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214" s="4" t="s">
         <v>101</v>
       </c>
@@ -6821,7 +6818,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215" s="4" t="s">
         <v>102</v>
       </c>
@@ -6829,7 +6826,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216" s="4" t="s">
         <v>103</v>
       </c>
@@ -6837,7 +6834,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217" s="4" t="s">
         <v>104</v>
       </c>
@@ -6845,7 +6842,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218" s="4" t="s">
         <v>105</v>
       </c>
@@ -6853,7 +6850,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219" s="4" t="s">
         <v>106</v>
       </c>
@@ -6861,7 +6858,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220" s="4" t="s">
         <v>107</v>
       </c>
@@ -6869,7 +6866,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221" s="4" t="s">
         <v>108</v>
       </c>
@@ -6877,7 +6874,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222" s="4" t="s">
         <v>109</v>
       </c>
@@ -6885,7 +6882,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223" s="4" t="s">
         <v>110</v>
       </c>
@@ -6893,7 +6890,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224" s="4" t="s">
         <v>111</v>
       </c>
@@ -6901,7 +6898,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225" s="4" t="s">
         <v>112</v>
       </c>
@@ -6909,7 +6906,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226" s="4" t="s">
         <v>113</v>
       </c>
@@ -6917,7 +6914,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227" s="4" t="s">
         <v>114</v>
       </c>
@@ -6925,7 +6922,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2">
       <c r="A228" s="4" t="s">
         <v>115</v>
       </c>
@@ -6933,7 +6930,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229" s="4" t="s">
         <v>116</v>
       </c>
@@ -6941,7 +6938,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230" s="4" t="s">
         <v>117</v>
       </c>
@@ -6949,7 +6946,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231" s="4" t="s">
         <v>118</v>
       </c>
@@ -6957,7 +6954,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232" s="4" t="s">
         <v>119</v>
       </c>
@@ -6965,7 +6962,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233" s="4" t="s">
         <v>120</v>
       </c>
@@ -6973,7 +6970,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234" s="4" t="s">
         <v>121</v>
       </c>
@@ -6981,7 +6978,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235" s="4" t="s">
         <v>122</v>
       </c>
@@ -6989,7 +6986,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236" s="4" t="s">
         <v>123</v>
       </c>
@@ -6997,7 +6994,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237" s="4" t="s">
         <v>124</v>
       </c>
@@ -7005,7 +7002,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2">
       <c r="A238" s="4" t="s">
         <v>125</v>
       </c>
@@ -7013,7 +7010,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239" s="4" t="s">
         <v>126</v>
       </c>
@@ -7021,7 +7018,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240" s="4" t="s">
         <v>127</v>
       </c>
@@ -7029,7 +7026,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2">
       <c r="A241" s="4" t="s">
         <v>128</v>
       </c>
@@ -7037,7 +7034,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2">
       <c r="A242" s="4" t="s">
         <v>129</v>
       </c>
@@ -7045,7 +7042,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>131</v>
       </c>
@@ -7056,6 +7053,11 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7064,12 +7066,12 @@
   <dimension ref="A1:O246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7080,7 +7082,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7091,7 +7093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -7099,7 +7101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -7107,7 +7109,7 @@
         <v>41855</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -7115,7 +7117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -7123,7 +7125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -7139,12 +7141,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -7164,7 +7166,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -7184,12 +7186,12 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -7197,7 +7199,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -7208,7 +7210,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -7227,7 +7229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -7238,7 +7240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -7246,12 +7248,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
@@ -7259,7 +7261,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
@@ -7267,7 +7269,7 @@
         <v>8.7099999189376831E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7275,7 +7277,7 @@
         <v>8.6900003254413605E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
         <v>36</v>
       </c>
@@ -7283,7 +7285,7 @@
         <v>8.6300000548362732E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -7291,7 +7293,7 @@
         <v>8.7800003588199615E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -7299,7 +7301,7 @@
         <v>8.8500000536441803E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="4" t="s">
         <v>39</v>
       </c>
@@ -7307,7 +7309,7 @@
         <v>8.6099997162818909E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
@@ -7315,7 +7317,7 @@
         <v>8.6400002241134644E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
@@ -7323,7 +7325,7 @@
         <v>8.6699999868869781E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
@@ -7331,7 +7333,7 @@
         <v>8.6000002920627594E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
@@ -7339,7 +7341,7 @@
         <v>8.6099997162818909E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
@@ -7347,7 +7349,7 @@
         <v>8.529999852180481E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
@@ -7355,7 +7357,7 @@
         <v>8.1100001931190491E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
@@ -7363,7 +7365,7 @@
         <v>7.9199999570846558E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
@@ -7371,7 +7373,7 @@
         <v>8.4200002253055573E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
@@ -7379,7 +7381,7 @@
         <v>8.9800000190734863E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
@@ -7387,7 +7389,7 @@
         <v>8.9699998497962952E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -7395,7 +7397,7 @@
         <v>8.5699997842311859E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
@@ -7403,7 +7405,7 @@
         <v>8.5400000214576721E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
@@ -7411,7 +7413,7 @@
         <v>8.6000002920627594E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>8.5400000214576721E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
@@ -7427,7 +7429,7 @@
         <v>8.5699997842311859E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
         <v>55</v>
       </c>
@@ -7435,7 +7437,7 @@
         <v>8.4600001573562622E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>8.2299999892711639E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
         <v>57</v>
       </c>
@@ -7451,7 +7453,7 @@
         <v>7.8000001609325409E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="4" t="s">
         <v>58</v>
       </c>
@@ -7459,7 +7461,7 @@
         <v>8.8600002229213715E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
         <v>59</v>
       </c>
@@ -7467,7 +7469,7 @@
         <v>8.2900002598762512E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="4" t="s">
         <v>60</v>
       </c>
@@ -7475,7 +7477,7 @@
         <v>8.8600002229213715E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="4" t="s">
         <v>61</v>
       </c>
@@ -7483,7 +7485,7 @@
         <v>8.9100003242492676E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="4" t="s">
         <v>62</v>
       </c>
@@ -7491,7 +7493,7 @@
         <v>8.7300002574920654E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="4" t="s">
         <v>63</v>
       </c>
@@ -7499,7 +7501,7 @@
         <v>8.5100002586841583E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="4" t="s">
         <v>64</v>
       </c>
@@ -7507,7 +7509,7 @@
         <v>8.6300000548362732E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
@@ -7515,7 +7517,7 @@
         <v>8.7099999189376831E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="4" t="s">
         <v>66</v>
       </c>
@@ -7523,7 +7525,7 @@
         <v>8.5100002586841583E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="4" t="s">
         <v>67</v>
       </c>
@@ -7531,7 +7533,7 @@
         <v>8.2800000905990601E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
         <v>68</v>
       </c>
@@ -7539,7 +7541,7 @@
         <v>8.020000159740448E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="4" t="s">
         <v>69</v>
       </c>
@@ -7547,7 +7549,7 @@
         <v>7.6899997889995575E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
         <v>70</v>
       </c>
@@ -7555,7 +7557,7 @@
         <v>9.0400002896785736E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
         <v>71</v>
       </c>
@@ -7563,7 +7565,7 @@
         <v>8.6099997162818909E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
         <v>72</v>
       </c>
@@ -7571,7 +7573,7 @@
         <v>8.7700001895427704E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
@@ -7579,7 +7581,7 @@
         <v>8.6499996483325958E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
         <v>74</v>
       </c>
@@ -7587,7 +7589,7 @@
         <v>8.6499996483325958E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="4" t="s">
         <v>75</v>
       </c>
@@ -7595,7 +7597,7 @@
         <v>8.5600003600120544E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="4" t="s">
         <v>76</v>
       </c>
@@ -7603,7 +7605,7 @@
         <v>8.3099998533725739E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
         <v>77</v>
       </c>
@@ -7611,7 +7613,7 @@
         <v>8.6400002241134644E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
         <v>78</v>
       </c>
@@ -7619,7 +7621,7 @@
         <v>8.3999998867511749E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
         <v>79</v>
       </c>
@@ -7627,7 +7629,7 @@
         <v>8.0099999904632568E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
         <v>80</v>
       </c>
@@ -7635,7 +7637,7 @@
         <v>8.4299996495246887E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
         <v>81</v>
       </c>
@@ -7643,7 +7645,7 @@
         <v>8.0799996852874756E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="4" t="s">
         <v>82</v>
       </c>
@@ -7651,7 +7653,7 @@
         <v>8.659999817609787E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
         <v>83</v>
       </c>
@@ -7659,7 +7661,7 @@
         <v>8.659999817609787E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
         <v>84</v>
       </c>
@@ -7667,7 +7669,7 @@
         <v>8.7499998509883881E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="4" t="s">
         <v>85</v>
       </c>
@@ -7675,7 +7677,7 @@
         <v>8.619999885559082E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
         <v>86</v>
       </c>
@@ -7683,7 +7685,7 @@
         <v>8.5500001907348633E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
         <v>87</v>
       </c>
@@ -7691,7 +7693,7 @@
         <v>8.320000022649765E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
         <v>88</v>
       </c>
@@ -7699,7 +7701,7 @@
         <v>8.3800002932548523E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
         <v>89</v>
       </c>
@@ -7707,7 +7709,7 @@
         <v>8.150000125169754E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>90</v>
       </c>
@@ -7715,7 +7717,7 @@
         <v>8.2400001585483551E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
         <v>91</v>
       </c>
@@ -7723,7 +7725,7 @@
         <v>8.0300003290176392E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="4" t="s">
         <v>92</v>
       </c>
@@ -7731,7 +7733,7 @@
         <v>7.9199999570846558E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
         <v>93</v>
       </c>
@@ -7739,7 +7741,7 @@
         <v>8.5900001227855682E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
         <v>94</v>
       </c>
@@ -7747,7 +7749,7 @@
         <v>8.7999999523162842E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="4" t="s">
         <v>95</v>
       </c>
@@ -7755,7 +7757,7 @@
         <v>7.6300002634525299E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="4" t="s">
         <v>96</v>
       </c>
@@ -7763,7 +7765,7 @@
         <v>8.4100000560283661E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="4" t="s">
         <v>97</v>
       </c>
@@ -7771,7 +7773,7 @@
         <v>8.35999995470047E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
         <v>98</v>
       </c>
@@ -7779,7 +7781,7 @@
         <v>8.1299997866153717E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="4" t="s">
         <v>99</v>
       </c>
@@ -7787,7 +7789,7 @@
         <v>8.449999988079071E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
         <v>100</v>
       </c>
@@ -7795,7 +7797,7 @@
         <v>7.9899996519088745E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
         <v>101</v>
       </c>
@@ -7803,7 +7805,7 @@
         <v>8.2199998199939728E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="4" t="s">
         <v>102</v>
       </c>
@@ -7811,7 +7813,7 @@
         <v>8.190000057220459E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
         <v>103</v>
       </c>
@@ -7819,7 +7821,7 @@
         <v>8.1799998879432678E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="4" t="s">
         <v>104</v>
       </c>
@@ -7827,7 +7829,7 @@
         <v>8.2599997520446777E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="4" t="s">
         <v>105</v>
       </c>
@@ -7835,7 +7837,7 @@
         <v>8.5199996829032898E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
         <v>106</v>
       </c>
@@ -7843,7 +7845,7 @@
         <v>8.5000000894069672E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
         <v>107</v>
       </c>
@@ -7851,7 +7853,7 @@
         <v>7.4500001966953278E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="4" t="s">
         <v>108</v>
       </c>
@@ -7859,7 +7861,7 @@
         <v>8.2199998199939728E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
         <v>109</v>
       </c>
@@ -7867,7 +7869,7 @@
         <v>8.2599997520446777E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="4" t="s">
         <v>110</v>
       </c>
@@ -7875,7 +7877,7 @@
         <v>8.5000000894069672E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="4" t="s">
         <v>111</v>
       </c>
@@ -7883,7 +7885,7 @@
         <v>8.2800000905990601E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
         <v>112</v>
       </c>
@@ -7891,7 +7893,7 @@
         <v>8.2999996840953827E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="4" t="s">
         <v>113</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>8.2000002264976501E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
         <v>114</v>
       </c>
@@ -7907,7 +7909,7 @@
         <v>8.2599997520446777E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
         <v>115</v>
       </c>
@@ -7915,7 +7917,7 @@
         <v>8.1699997186660767E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
         <v>116</v>
       </c>
@@ -7923,7 +7925,7 @@
         <v>7.8299999237060547E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
         <v>117</v>
       </c>
@@ -7931,7 +7933,7 @@
         <v>8.4700003266334534E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="4" t="s">
         <v>118</v>
       </c>
@@ -7939,7 +7941,7 @@
         <v>8.020000159740448E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="4" t="s">
         <v>119</v>
       </c>
@@ -7947,7 +7949,7 @@
         <v>7.9599998891353607E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
         <v>120</v>
       </c>
@@ -7955,7 +7957,7 @@
         <v>8.1200003623962402E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
         <v>121</v>
       </c>
@@ -7963,7 +7965,7 @@
         <v>8.3899997174739838E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
         <v>122</v>
       </c>
@@ -7971,7 +7973,7 @@
         <v>8.3499997854232788E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="4" t="s">
         <v>123</v>
       </c>
@@ -7979,7 +7981,7 @@
         <v>8.2000002264976501E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="4" t="s">
         <v>124</v>
       </c>
@@ -7987,7 +7989,7 @@
         <v>8.2900002598762512E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="4" t="s">
         <v>125</v>
       </c>
@@ -7995,7 +7997,7 @@
         <v>8.320000022649765E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
         <v>126</v>
       </c>
@@ -8003,7 +8005,7 @@
         <v>8.3899997174739838E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
         <v>127</v>
       </c>
@@ -8011,7 +8013,7 @@
         <v>8.35999995470047E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="4" t="s">
         <v>128</v>
       </c>
@@ -8019,7 +8021,7 @@
         <v>8.4299996495246887E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
         <v>129</v>
       </c>
@@ -8027,7 +8029,7 @@
         <v>8.1200003623962402E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>131</v>
       </c>
@@ -8035,12 +8037,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -8048,7 +8050,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>135</v>
       </c>
@@ -8059,7 +8061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>136</v>
       </c>
@@ -8070,7 +8072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>137</v>
       </c>
@@ -8081,7 +8083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>138</v>
       </c>
@@ -8092,7 +8094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -8103,7 +8105,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -8111,7 +8113,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -8122,7 +8124,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -8133,7 +8135,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>28</v>
       </c>
@@ -8144,7 +8146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>30</v>
       </c>
@@ -8152,12 +8154,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="B145" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
         <v>33</v>
       </c>
@@ -8165,7 +8167,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" s="4" t="s">
         <v>34</v>
       </c>
@@ -8173,7 +8175,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" s="4" t="s">
         <v>35</v>
       </c>
@@ -8181,7 +8183,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" s="4" t="s">
         <v>36</v>
       </c>
@@ -8189,7 +8191,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" s="4" t="s">
         <v>37</v>
       </c>
@@ -8197,7 +8199,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
         <v>38</v>
       </c>
@@ -8205,7 +8207,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" s="4" t="s">
         <v>39</v>
       </c>
@@ -8213,7 +8215,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" s="4" t="s">
         <v>40</v>
       </c>
@@ -8221,7 +8223,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" s="4" t="s">
         <v>41</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="4" t="s">
         <v>42</v>
       </c>
@@ -8237,7 +8239,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" s="4" t="s">
         <v>43</v>
       </c>
@@ -8245,7 +8247,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" s="4" t="s">
         <v>44</v>
       </c>
@@ -8253,7 +8255,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" s="4" t="s">
         <v>45</v>
       </c>
@@ -8261,7 +8263,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" s="4" t="s">
         <v>46</v>
       </c>
@@ -8269,7 +8271,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" s="4" t="s">
         <v>47</v>
       </c>
@@ -8277,7 +8279,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="4" t="s">
         <v>48</v>
       </c>
@@ -8285,7 +8287,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" s="4" t="s">
         <v>49</v>
       </c>
@@ -8293,7 +8295,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" s="4" t="s">
         <v>50</v>
       </c>
@@ -8301,7 +8303,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" s="4" t="s">
         <v>51</v>
       </c>
@@ -8309,7 +8311,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" s="4" t="s">
         <v>52</v>
       </c>
@@ -8317,7 +8319,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" s="4" t="s">
         <v>53</v>
       </c>
@@ -8325,7 +8327,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" s="4" t="s">
         <v>54</v>
       </c>
@@ -8333,7 +8335,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" s="4" t="s">
         <v>55</v>
       </c>
@@ -8341,7 +8343,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" s="4" t="s">
         <v>56</v>
       </c>
@@ -8349,7 +8351,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" s="4" t="s">
         <v>57</v>
       </c>
@@ -8357,7 +8359,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" s="4" t="s">
         <v>58</v>
       </c>
@@ -8365,7 +8367,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172" s="4" t="s">
         <v>59</v>
       </c>
@@ -8373,7 +8375,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" s="4" t="s">
         <v>60</v>
       </c>
@@ -8381,7 +8383,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" s="4" t="s">
         <v>61</v>
       </c>
@@ -8389,7 +8391,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" s="4" t="s">
         <v>62</v>
       </c>
@@ -8397,7 +8399,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" s="4" t="s">
         <v>63</v>
       </c>
@@ -8405,7 +8407,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" s="4" t="s">
         <v>64</v>
       </c>
@@ -8413,7 +8415,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" s="4" t="s">
         <v>65</v>
       </c>
@@ -8421,7 +8423,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" s="4" t="s">
         <v>66</v>
       </c>
@@ -8429,7 +8431,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180" s="4" t="s">
         <v>67</v>
       </c>
@@ -8437,7 +8439,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" s="4" t="s">
         <v>68</v>
       </c>
@@ -8445,7 +8447,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182" s="4" t="s">
         <v>69</v>
       </c>
@@ -8453,7 +8455,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" s="4" t="s">
         <v>70</v>
       </c>
@@ -8461,7 +8463,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" s="4" t="s">
         <v>71</v>
       </c>
@@ -8469,7 +8471,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" s="4" t="s">
         <v>72</v>
       </c>
@@ -8477,7 +8479,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" s="4" t="s">
         <v>73</v>
       </c>
@@ -8485,7 +8487,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" s="4" t="s">
         <v>74</v>
       </c>
@@ -8493,7 +8495,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" s="4" t="s">
         <v>75</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" s="4" t="s">
         <v>76</v>
       </c>
@@ -8509,7 +8511,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" s="4" t="s">
         <v>77</v>
       </c>
@@ -8517,7 +8519,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" s="4" t="s">
         <v>78</v>
       </c>
@@ -8525,7 +8527,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" s="4" t="s">
         <v>79</v>
       </c>
@@ -8533,7 +8535,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" s="4" t="s">
         <v>80</v>
       </c>
@@ -8541,7 +8543,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" s="4" t="s">
         <v>81</v>
       </c>
@@ -8549,7 +8551,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" s="4" t="s">
         <v>82</v>
       </c>
@@ -8557,7 +8559,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" s="4" t="s">
         <v>83</v>
       </c>
@@ -8565,7 +8567,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" s="4" t="s">
         <v>84</v>
       </c>
@@ -8573,7 +8575,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" s="4" t="s">
         <v>85</v>
       </c>
@@ -8581,7 +8583,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" s="4" t="s">
         <v>86</v>
       </c>
@@ -8589,7 +8591,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" s="4" t="s">
         <v>87</v>
       </c>
@@ -8597,7 +8599,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" s="4" t="s">
         <v>88</v>
       </c>
@@ -8605,7 +8607,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202" s="4" t="s">
         <v>89</v>
       </c>
@@ -8613,7 +8615,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203" s="4" t="s">
         <v>90</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204" s="4" t="s">
         <v>91</v>
       </c>
@@ -8629,7 +8631,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205" s="4" t="s">
         <v>92</v>
       </c>
@@ -8637,7 +8639,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206" s="4" t="s">
         <v>93</v>
       </c>
@@ -8645,7 +8647,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207" s="4" t="s">
         <v>94</v>
       </c>
@@ -8653,7 +8655,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208" s="4" t="s">
         <v>95</v>
       </c>
@@ -8661,7 +8663,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209" s="4" t="s">
         <v>96</v>
       </c>
@@ -8669,7 +8671,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210" s="4" t="s">
         <v>97</v>
       </c>
@@ -8677,7 +8679,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211" s="4" t="s">
         <v>98</v>
       </c>
@@ -8685,7 +8687,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212" s="4" t="s">
         <v>99</v>
       </c>
@@ -8693,7 +8695,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213" s="4" t="s">
         <v>100</v>
       </c>
@@ -8701,7 +8703,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214" s="4" t="s">
         <v>101</v>
       </c>
@@ -8709,7 +8711,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215" s="4" t="s">
         <v>102</v>
       </c>
@@ -8717,7 +8719,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216" s="4" t="s">
         <v>103</v>
       </c>
@@ -8725,7 +8727,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217" s="4" t="s">
         <v>104</v>
       </c>
@@ -8733,7 +8735,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218" s="4" t="s">
         <v>105</v>
       </c>
@@ -8741,7 +8743,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219" s="4" t="s">
         <v>106</v>
       </c>
@@ -8749,7 +8751,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220" s="4" t="s">
         <v>107</v>
       </c>
@@ -8757,7 +8759,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221" s="4" t="s">
         <v>108</v>
       </c>
@@ -8765,7 +8767,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222" s="4" t="s">
         <v>109</v>
       </c>
@@ -8773,7 +8775,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223" s="4" t="s">
         <v>110</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224" s="4" t="s">
         <v>111</v>
       </c>
@@ -8789,7 +8791,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225" s="4" t="s">
         <v>112</v>
       </c>
@@ -8797,7 +8799,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226" s="4" t="s">
         <v>113</v>
       </c>
@@ -8805,7 +8807,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227" s="4" t="s">
         <v>114</v>
       </c>
@@ -8813,7 +8815,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2">
       <c r="A228" s="4" t="s">
         <v>115</v>
       </c>
@@ -8821,7 +8823,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229" s="4" t="s">
         <v>116</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230" s="4" t="s">
         <v>117</v>
       </c>
@@ -8837,7 +8839,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231" s="4" t="s">
         <v>118</v>
       </c>
@@ -8845,7 +8847,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232" s="4" t="s">
         <v>119</v>
       </c>
@@ -8853,7 +8855,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233" s="4" t="s">
         <v>120</v>
       </c>
@@ -8861,7 +8863,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234" s="4" t="s">
         <v>121</v>
       </c>
@@ -8869,7 +8871,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235" s="4" t="s">
         <v>122</v>
       </c>
@@ -8877,7 +8879,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236" s="4" t="s">
         <v>123</v>
       </c>
@@ -8885,7 +8887,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237" s="4" t="s">
         <v>124</v>
       </c>
@@ -8893,7 +8895,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2">
       <c r="A238" s="4" t="s">
         <v>125</v>
       </c>
@@ -8901,7 +8903,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239" s="4" t="s">
         <v>126</v>
       </c>
@@ -8909,7 +8911,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240" s="4" t="s">
         <v>127</v>
       </c>
@@ -8917,7 +8919,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2">
       <c r="A241" s="4" t="s">
         <v>128</v>
       </c>
@@ -8925,7 +8927,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2">
       <c r="A242" s="4" t="s">
         <v>129</v>
       </c>
@@ -8933,7 +8935,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>131</v>
       </c>
@@ -8944,17 +8946,1389 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>7.1999996900558472E-2</v>
+      </c>
+      <c r="C2">
+        <v>389</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>7.1599997580051422E-2</v>
+      </c>
+      <c r="C3">
+        <v>333</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>7.2200000286102295E-2</v>
+      </c>
+      <c r="C4">
+        <v>376</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>7.2700001299381256E-2</v>
+      </c>
+      <c r="C5">
+        <v>381</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
+        <v>7.2200000286102295E-2</v>
+      </c>
+      <c r="C6">
+        <v>337</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>7.1599997580051422E-2</v>
+      </c>
+      <c r="C7">
+        <v>390</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>7.2700001299381256E-2</v>
+      </c>
+      <c r="C8">
+        <v>338</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9">
+        <v>7.2200000286102295E-2</v>
+      </c>
+      <c r="C9">
+        <v>326</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <v>7.3399998247623444E-2</v>
+      </c>
+      <c r="C10">
+        <v>398</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>7.4100002646446228E-2</v>
+      </c>
+      <c r="C11">
+        <v>296</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>7.4199996888637543E-2</v>
+      </c>
+      <c r="C12">
+        <v>284</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>7.5599998235702515E-2</v>
+      </c>
+      <c r="C13">
+        <v>489</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>7.3700003325939178E-2</v>
+      </c>
+      <c r="C14">
+        <v>438</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>7.3100000619888306E-2</v>
+      </c>
+      <c r="C15">
+        <v>359</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16">
+        <v>6.8999998271465302E-2</v>
+      </c>
+      <c r="C16">
+        <v>339</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <v>7.2400003671646118E-2</v>
+      </c>
+      <c r="C17">
+        <v>288</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>7.1999996900558472E-2</v>
+      </c>
+      <c r="C18">
+        <v>280</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19">
+        <v>7.1400001645088196E-2</v>
+      </c>
+      <c r="C19">
+        <v>359</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>7.1800000965595245E-2</v>
+      </c>
+      <c r="C20">
+        <v>340</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21">
+        <v>7.1699999272823334E-2</v>
+      </c>
+      <c r="C21">
+        <v>371</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>7.2899997234344482E-2</v>
+      </c>
+      <c r="C22">
+        <v>384</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23">
+        <v>7.0699997246265411E-2</v>
+      </c>
+      <c r="C23">
+        <v>405</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>7.3499999940395355E-2</v>
+      </c>
+      <c r="C24">
+        <v>449</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>7.3399998247623444E-2</v>
+      </c>
+      <c r="C25">
+        <v>482</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>7.3499999940395355E-2</v>
+      </c>
+      <c r="C26">
+        <v>412</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>7.1299999952316284E-2</v>
+      </c>
+      <c r="C27">
+        <v>329</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>7.1400001645088196E-2</v>
+      </c>
+      <c r="C28">
+        <v>336</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>7.0000000298023224E-2</v>
+      </c>
+      <c r="C29">
+        <v>297</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>7.2400003671646118E-2</v>
+      </c>
+      <c r="C30">
+        <v>258</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31">
+        <v>6.8300001323223114E-2</v>
+      </c>
+      <c r="C31">
+        <v>318</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32">
+        <v>6.889999657869339E-2</v>
+      </c>
+      <c r="C32">
+        <v>366</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>7.3100000619888306E-2</v>
+      </c>
+      <c r="C33">
+        <v>278</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>7.1699999272823334E-2</v>
+      </c>
+      <c r="C34">
+        <v>411</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <v>7.3799997568130493E-2</v>
+      </c>
+      <c r="C35">
+        <v>398</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36">
+        <v>7.4400000274181366E-2</v>
+      </c>
+      <c r="C36">
+        <v>387</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>7.4100002646446228E-2</v>
+      </c>
+      <c r="C37">
+        <v>274</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <v>7.1000002324581146E-2</v>
+      </c>
+      <c r="C38">
+        <v>339</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39">
+        <v>7.2099998593330383E-2</v>
+      </c>
+      <c r="C39">
+        <v>239</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40">
+        <v>7.2700001299381256E-2</v>
+      </c>
+      <c r="C40">
+        <v>363</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41">
+        <v>7.0100001990795135E-2</v>
+      </c>
+      <c r="C41">
+        <v>336</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42">
+        <v>7.0900000631809235E-2</v>
+      </c>
+      <c r="C42">
+        <v>247</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>7.2800002992153168E-2</v>
+      </c>
+      <c r="C43">
+        <v>380</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44">
+        <v>7.4199996888637543E-2</v>
+      </c>
+      <c r="C44">
+        <v>337</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45">
+        <v>7.2999998927116394E-2</v>
+      </c>
+      <c r="C45">
+        <v>374</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46">
+        <v>7.4199996888637543E-2</v>
+      </c>
+      <c r="C46">
+        <v>428</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47">
+        <v>7.4500001966953278E-2</v>
+      </c>
+      <c r="C47">
+        <v>331</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48">
+        <v>7.4699997901916504E-2</v>
+      </c>
+      <c r="C48">
+        <v>486</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49">
+        <v>7.4799999594688416E-2</v>
+      </c>
+      <c r="C49">
+        <v>347</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50">
+        <v>7.2999998927116394E-2</v>
+      </c>
+      <c r="C50">
+        <v>365</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51">
+        <v>7.3100000619888306E-2</v>
+      </c>
+      <c r="C51">
+        <v>331</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52">
+        <v>7.0799998939037323E-2</v>
+      </c>
+      <c r="C52">
+        <v>359</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53">
+        <v>7.3899999260902405E-2</v>
+      </c>
+      <c r="C53">
+        <v>291</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54">
+        <v>7.4500001966953278E-2</v>
+      </c>
+      <c r="C54">
+        <v>333</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55">
+        <v>7.3600001633167267E-2</v>
+      </c>
+      <c r="C55">
+        <v>279</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56">
+        <v>7.4799999594688416E-2</v>
+      </c>
+      <c r="C56">
+        <v>382</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57">
+        <v>7.4799999594688416E-2</v>
+      </c>
+      <c r="C57">
+        <v>461</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58">
+        <v>7.4900001287460327E-2</v>
+      </c>
+      <c r="C58">
+        <v>476</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59">
+        <v>7.4799999594688416E-2</v>
+      </c>
+      <c r="C59">
+        <v>512</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60">
+        <v>7.4299998581409454E-2</v>
+      </c>
+      <c r="C60">
+        <v>551</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61">
+        <v>7.4699997901916504E-2</v>
+      </c>
+      <c r="C61">
+        <v>568</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62">
+        <v>7.2400003671646118E-2</v>
+      </c>
+      <c r="C62">
+        <v>306</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63">
+        <v>6.7500002682209015E-2</v>
+      </c>
+      <c r="C63">
+        <v>324</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B64">
+        <v>7.3899999260902405E-2</v>
+      </c>
+      <c r="C64">
+        <v>347</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65">
+        <v>7.3700003325939178E-2</v>
+      </c>
+      <c r="C65">
+        <v>369</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66">
+        <v>7.2800002992153168E-2</v>
+      </c>
+      <c r="C66">
+        <v>261</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67">
+        <v>7.2499997913837433E-2</v>
+      </c>
+      <c r="C67">
+        <v>458</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68">
+        <v>7.3700003325939178E-2</v>
+      </c>
+      <c r="C68">
+        <v>454</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69">
+        <v>7.4600003659725189E-2</v>
+      </c>
+      <c r="C69">
+        <v>455</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70">
+        <v>7.4500001966953278E-2</v>
+      </c>
+      <c r="C70">
+        <v>525</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71">
+        <v>7.4299998581409454E-2</v>
+      </c>
+      <c r="C71">
+        <v>446</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72">
+        <v>7.7899999916553497E-2</v>
+      </c>
+      <c r="C72">
+        <v>506</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73">
+        <v>7.6200000941753387E-2</v>
+      </c>
+      <c r="C73">
+        <v>548</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74">
+        <v>7.0600003004074097E-2</v>
+      </c>
+      <c r="C74">
+        <v>262</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75">
+        <v>6.5099999308586121E-2</v>
+      </c>
+      <c r="C75">
+        <v>273</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <v>7.5099997222423553E-2</v>
+      </c>
+      <c r="C76">
+        <v>329</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77">
+        <v>7.4799999594688416E-2</v>
+      </c>
+      <c r="C77">
+        <v>350</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78">
+        <v>7.3299996554851532E-2</v>
+      </c>
+      <c r="C78">
+        <v>409</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79">
+        <v>7.4000000953674316E-2</v>
+      </c>
+      <c r="C79">
+        <v>393</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80">
+        <v>7.5499996542930603E-2</v>
+      </c>
+      <c r="C80">
+        <v>483</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81">
+        <v>7.6200000941753387E-2</v>
+      </c>
+      <c r="C81">
+        <v>242</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82">
+        <v>7.4799999594688416E-2</v>
+      </c>
+      <c r="C82">
+        <v>535</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83">
+        <v>7.6099999248981476E-2</v>
+      </c>
+      <c r="C83">
+        <v>446</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84">
+        <v>7.5599998235702515E-2</v>
+      </c>
+      <c r="C84">
+        <v>565</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85">
+        <v>7.680000364780426E-2</v>
+      </c>
+      <c r="C85">
+        <v>552</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86">
+        <v>6.9499999284744263E-2</v>
+      </c>
+      <c r="C86">
+        <v>256</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87">
+        <v>6.1700001358985901E-2</v>
+      </c>
+      <c r="C87">
+        <v>258</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88">
+        <v>7.1500003337860107E-2</v>
+      </c>
+      <c r="C88">
+        <v>332</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89">
+        <v>7.5300000607967377E-2</v>
+      </c>
+      <c r="C89">
+        <v>402</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90">
+        <v>7.6300002634525299E-2</v>
+      </c>
+      <c r="C90">
+        <v>414</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91">
+        <v>7.3799997568130493E-2</v>
+      </c>
+      <c r="C91">
+        <v>349</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92">
+        <v>7.4100002646446228E-2</v>
+      </c>
+      <c r="C92">
+        <v>241</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93">
+        <v>7.5499996542930603E-2</v>
+      </c>
+      <c r="C93">
+        <v>525</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94">
+        <v>7.6700001955032349E-2</v>
+      </c>
+      <c r="C94">
+        <v>522</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95">
+        <v>7.5999997556209564E-2</v>
+      </c>
+      <c r="C95">
+        <v>231</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96">
+        <v>7.6399996876716614E-2</v>
+      </c>
+      <c r="C96">
+        <v>443</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97">
+        <v>7.6899997889995575E-2</v>
+      </c>
+      <c r="C97">
+        <v>351</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>